--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H2">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I2">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J2">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>39.12698870783667</v>
+        <v>113.3910852899573</v>
       </c>
       <c r="R2">
-        <v>352.14289837053</v>
+        <v>1020.519767609616</v>
       </c>
       <c r="S2">
-        <v>0.1734582571540806</v>
+        <v>0.2893163963076357</v>
       </c>
       <c r="T2">
-        <v>0.1734582571540806</v>
+        <v>0.2893163963076358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H3">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I3">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J3">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>8.083561724796335</v>
+        <v>15.81829276925911</v>
       </c>
       <c r="R3">
-        <v>72.752055523167</v>
+        <v>142.364634923332</v>
       </c>
       <c r="S3">
-        <v>0.03583614723971257</v>
+        <v>0.04036024038431619</v>
       </c>
       <c r="T3">
-        <v>0.03583614723971256</v>
+        <v>0.0403602403843162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H4">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I4">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J4">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>30.71051879030133</v>
+        <v>68.40115088353866</v>
       </c>
       <c r="R4">
-        <v>276.394669112712</v>
+        <v>615.610357951848</v>
       </c>
       <c r="S4">
-        <v>0.1361462571382699</v>
+        <v>0.1745249586977272</v>
       </c>
       <c r="T4">
-        <v>0.1361462571382699</v>
+        <v>0.1745249586977272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H5">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I5">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J5">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>8.991396993376</v>
+        <v>17.27756834907289</v>
       </c>
       <c r="R5">
-        <v>80.92257294038399</v>
+        <v>155.498115141656</v>
       </c>
       <c r="S5">
-        <v>0.0398607739403944</v>
+        <v>0.04408356969977208</v>
       </c>
       <c r="T5">
-        <v>0.03986077394039438</v>
+        <v>0.0440835696997721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H6">
         <v>2.877521</v>
       </c>
       <c r="I6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>45.63648871663221</v>
+        <v>67.58617350374533</v>
       </c>
       <c r="R6">
-        <v>410.72839844969</v>
+        <v>608.275561533708</v>
       </c>
       <c r="S6">
-        <v>0.202316254249165</v>
+        <v>0.1724455507972638</v>
       </c>
       <c r="T6">
-        <v>0.202316254249165</v>
+        <v>0.1724455507972639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H7">
         <v>2.877521</v>
       </c>
       <c r="I7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
-        <v>9.428412091676778</v>
+        <v>9.428412091676776</v>
       </c>
       <c r="R7">
-        <v>84.855708825091</v>
+        <v>84.85570882509099</v>
       </c>
       <c r="S7">
-        <v>0.04179815475616082</v>
+        <v>0.02405651381051606</v>
       </c>
       <c r="T7">
-        <v>0.0417981547561608</v>
+        <v>0.02405651381051607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H8">
         <v>2.877521</v>
       </c>
       <c r="I8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>35.81978298204177</v>
+        <v>40.77015437015266</v>
       </c>
       <c r="R8">
-        <v>322.378046838376</v>
+        <v>366.931389331374</v>
       </c>
       <c r="S8">
-        <v>0.1587967112444287</v>
+        <v>0.104024704491679</v>
       </c>
       <c r="T8">
-        <v>0.1587967112444287</v>
+        <v>0.104024704491679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H9">
         <v>2.877521</v>
       </c>
       <c r="I9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>10.48728258898133</v>
+        <v>10.29820579966422</v>
       </c>
       <c r="R9">
-        <v>94.38554330083198</v>
+        <v>92.68385219697799</v>
       </c>
       <c r="S9">
-        <v>0.04649235272743316</v>
+        <v>0.02627578510933545</v>
       </c>
       <c r="T9">
-        <v>0.04649235272743315</v>
+        <v>0.02627578510933545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.411586</v>
       </c>
       <c r="I10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>6.527611734171109</v>
+        <v>9.667183248258668</v>
       </c>
       <c r="R10">
-        <v>58.74850560753999</v>
+        <v>87.00464923432801</v>
       </c>
       <c r="S10">
-        <v>0.02893829022321533</v>
+        <v>0.02466573639964492</v>
       </c>
       <c r="T10">
-        <v>0.02893829022321533</v>
+        <v>0.02466573639964492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.411586</v>
       </c>
       <c r="I11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
         <v>1.348592215022889</v>
@@ -1131,10 +1131,10 @@
         <v>12.137329935206</v>
       </c>
       <c r="S11">
-        <v>0.005978595924571603</v>
+        <v>0.003440921645129632</v>
       </c>
       <c r="T11">
-        <v>0.005978595924571601</v>
+        <v>0.003440921645129633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.411586</v>
       </c>
       <c r="I12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>5.123479967112887</v>
+        <v>5.831555966609333</v>
       </c>
       <c r="R12">
-        <v>46.11131970401599</v>
+        <v>52.484003699484</v>
       </c>
       <c r="S12">
-        <v>0.02271347565986467</v>
+        <v>0.01487916578989769</v>
       </c>
       <c r="T12">
-        <v>0.02271347565986466</v>
+        <v>0.01487916578989769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.411586</v>
       </c>
       <c r="I13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>1.500047677034666</v>
+        <v>1.473003092683111</v>
       </c>
       <c r="R13">
-        <v>13.500429093312</v>
+        <v>13.257027834148</v>
       </c>
       <c r="S13">
-        <v>0.006650030178641025</v>
+        <v>0.00375835494858628</v>
       </c>
       <c r="T13">
-        <v>0.006650030178641023</v>
+        <v>0.00375835494858628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H14">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>10.25794519639444</v>
+        <v>16.16597799093867</v>
       </c>
       <c r="R14">
-        <v>92.32150676754999</v>
+        <v>145.493801918448</v>
       </c>
       <c r="S14">
-        <v>0.04547565132177616</v>
+        <v>0.04124735629054926</v>
       </c>
       <c r="T14">
-        <v>0.04547565132177615</v>
+        <v>0.04124735629054926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H15">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>2.119272039660555</v>
+        <v>2.255187628799555</v>
       </c>
       <c r="R15">
-        <v>19.073448356945</v>
+        <v>20.296688659196</v>
       </c>
       <c r="S15">
-        <v>0.0093951833906724</v>
+        <v>0.00575409218540777</v>
       </c>
       <c r="T15">
-        <v>0.009395183390672397</v>
+        <v>0.005754092185407772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H16">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>8.051394423835555</v>
+        <v>9.751838047149333</v>
       </c>
       <c r="R16">
-        <v>72.46254981452</v>
+        <v>87.766542424344</v>
       </c>
       <c r="S16">
-        <v>0.03569354275758206</v>
+        <v>0.02488173240393896</v>
       </c>
       <c r="T16">
-        <v>0.03569354275758205</v>
+        <v>0.02488173240393896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H17">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>2.357279735626666</v>
+        <v>2.463234115396444</v>
       </c>
       <c r="R17">
-        <v>21.21551762064</v>
+        <v>22.169107038568</v>
       </c>
       <c r="S17">
-        <v>0.01045032209403168</v>
+        <v>0.00628492103859988</v>
       </c>
       <c r="T17">
-        <v>0.01045032209403167</v>
+        <v>0.006284921038599882</v>
       </c>
     </row>
   </sheetData>
